--- a/data/285_D_features_case.xlsx
+++ b/data/285_D_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,6 +4446,3870 @@
         <v>0.98155</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.001846919407894</v>
+      </c>
+      <c r="B72" t="n">
+        <v>30.76310307931287</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-6.363754722222553e-06</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.04681884130066612</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.294718162294408e-06</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.0001953313023512928</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2.052899650493423e-07</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.000270175918373548</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.006075702024502925</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-6.438634481706874e-05</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3.829980547578582e-06</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.001352089070723684</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-3.255136579327303e-05</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-1.842723105853161e-05</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-6.399625858728071e-06</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.0002595618983731853</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1482.176428856809</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.001842861842105</v>
+      </c>
+      <c r="B73" t="n">
+        <v>30.7500165752924</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.759787164473661e-05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.0497732447100329</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.282264270473651e-06</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.0004241505315963815</v>
+      </c>
+      <c r="G73" t="n">
+        <v>8.302322747039492e-07</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0002712089049051189</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.01311001380286129</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-3.773455703453943e-05</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0001435182600648757</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.001299370948647661</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-2.748733305703581e-05</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-2.300902774410818e-05</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3.444040293813962e-05</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.0002605715619863852</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1481.782565390077</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.0185</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.001834759868421</v>
+      </c>
+      <c r="B74" t="n">
+        <v>30.72668146929825</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.832651608187115e-05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.05154308153120431</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.297917454154605e-06</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.0006548678291430263</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.903755343881575e-06</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0002732733468712719</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.02018717275024488</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-9.608156864382318e-06</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.000279433528489163</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.001299620898391813</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-2.11754729962902e-05</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-2.605750900072551e-05</v>
+      </c>
+      <c r="O74" t="n">
+        <v>8.868445421472952e-05</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.0002680196852209795</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1481.091809625407</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.0369</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.001819710526316</v>
+      </c>
+      <c r="B75" t="n">
+        <v>30.69314354897661</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-9.781649031432853e-06</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.0522623387459978</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.320006351760526e-06</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.0008769081199450658</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.633254666842107e-06</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0002710687204916484</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.02697896981572368</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8.006945276315731e-06</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0004128286842144371</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.001297995555555556</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-1.549536423799342e-05</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-2.69837880288962e-05</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.0001396522705371711</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.0002748250618623502</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1480.108036771219</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.0554</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.001802445723684</v>
+      </c>
+      <c r="B76" t="n">
+        <v>30.64986928910818</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.384217965369829e-06</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.05235716675431287</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.342542673448865e-06</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.001077384457456086</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.227535821518091e-06</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.000272276001364693</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.03309107864518093</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-8.966209760600323e-06</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0005413151730624726</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.001357638824470029</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-1.428017203478984e-05</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-2.554293094776224e-05</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0001771364998956442</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.0002854897189202467</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1478.841595432709</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.0738</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.001782703947368</v>
+      </c>
+      <c r="B77" t="n">
+        <v>30.59803722587719</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.955678583699016e-06</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.05229068478619701</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.363578683426645e-06</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.001245421657226414</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7.616877259605259e-07</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0002690243161313048</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.03819257518009869</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-5.783343921235385e-05</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0006623172079555921</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.001310849174159357</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-1.816088706312135e-05</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-2.069782317743549e-05</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.0002195733188233918</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.0002904677756082968</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1477.328300001762</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.0922</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.001759654605263</v>
+      </c>
+      <c r="B78" t="n">
+        <v>30.53839305555555</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.9693396016085e-06</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.05214684318799891</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.380822755002961e-06</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.001394499121052632</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.948755268092107e-07</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0002700242615210344</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.04270136983369883</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-9.335287815478803e-05</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0007732109888937499</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.001311988157711988</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-2.628290851145833e-05</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-1.446468918050073e-05</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.0002454813436233187</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.0003007862668983553</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1475.592084507302</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.1105</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.001730648026316</v>
+      </c>
+      <c r="B79" t="n">
+        <v>30.47175952119883</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.675766268274822e-05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.05158965937842835</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.433672746217105e-06</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.001548247042105263</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-4.894268488815782e-07</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0002692932094378655</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.04732843874269007</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.0001082845415021929</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0008760158598879568</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.001292662982821638</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-3.636817999420687e-05</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-7.831549507478069e-06</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.00023963817049608</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.0003079765358324616</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1473.660498089436</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.1289</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.001693949013158</v>
+      </c>
+      <c r="B80" t="n">
+        <v>30.39859306469298</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.726275766356012e-05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.05029293056130262</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.506013545622039e-06</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.001726605409703947</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.327234831250016e-07</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0002743821957927449</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.05266708572733917</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-8.332841483790203e-05</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0009685018571557019</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.001337467346491228</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-4.48968230822944e-05</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-2.310812619042418e-07</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.0002019273814797423</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.0003231145877999113</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1471.549406740802</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.1472</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.001669256578947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>30.32007061403509</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.264553408443034e-05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.04821161123548794</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.491481810799343e-06</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.001909861186842105</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.189598836861843e-06</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.00027229756556303</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.05809842814327486</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-6.134176350310675e-05</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.001049946183083516</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.001258555197368421</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-4.957384333642178e-05</v>
+      </c>
+      <c r="N81" t="n">
+        <v>8.193691073556283e-06</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0001894395517165388</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.000340407330321345</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1469.277492964427</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.1654</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.001628253289474</v>
+      </c>
+      <c r="B82" t="n">
+        <v>30.23553846856725</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.474996498538097e-06</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.04539945861545139</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.505179567800987e-06</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.002079095217105263</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.671731635983554e-06</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0002746755127346491</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.06303258274853801</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-4.458010495924709e-05</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.001121537656052632</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.001250033604861111</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-4.936690494046052e-05</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.667944754144737e-05</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0001892716613501462</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.0003693935491075531</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1466.853420334246</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.1835</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.001590845394737</v>
+      </c>
+      <c r="B83" t="n">
+        <v>30.14518241959064</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-2.478445113304158e-05</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.04185666859336531</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.585484972661842e-06</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.0022403338125</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.971651239111841e-06</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0002712338267354349</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.06768893627558478</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-2.657626168494153e-05</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.001186479763611111</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.001229946880279605</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-4.367900225342837e-05</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2.564285337070541e-05</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0001943860015201206</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0003941483405643641</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1464.266358371607</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.2017</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.001548883223684</v>
+      </c>
+      <c r="B84" t="n">
+        <v>30.04931031615497</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-3.966384886513133e-05</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.03777697953689694</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.693304122459375e-06</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.002401525973684211</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2.466425763963816e-06</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0002722723529221491</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.07234227890168128</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.11179951516812e-06</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.001245165685032894</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.001286426090331689</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-3.243889242752284e-05</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.630076610531798e-05</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0001885092510924616</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.000421060148156716</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1461.534140656935</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.2198</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.001505305921053</v>
+      </c>
+      <c r="B85" t="n">
+        <v>29.94991937134503</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-3.251774652229576e-05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.0337965946211365</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.746434218975658e-06</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.002565963927631579</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.090339520296052e-06</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0002694764737863852</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.07702514166666667</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.822893848684223e-06</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001303428786732456</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.001206123094658808</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-1.811668105743786e-05</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4.806697599159356e-05</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.000146880292169026</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.0004392785483912098</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1458.712073883788</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.2377</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.001458375</v>
+      </c>
+      <c r="B86" t="n">
+        <v>29.84588651315789</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.941529080774911e-05</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.03062040659741045</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.844721763587599e-06</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.002716174213815789</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.042185682835529e-06</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0002770774283807382</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.08123496683114036</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-9.975459207054235e-06</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.001361081209247076</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.001197236126780153</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-1.370603413834065e-06</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5.730359899872076e-05</v>
+      </c>
+      <c r="O86" t="n">
+        <v>8.93832229896016e-05</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.0004644336760686934</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1455.769935316418</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.2555</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.001408368421053</v>
+      </c>
+      <c r="B87" t="n">
+        <v>29.73762141812865</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.65494303179824e-05</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.0287379998947882</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.007089567653947e-06</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.00285529728618421</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.112800343914476e-06</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0002857979038396015</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.08507544919590643</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.018641709722215e-05</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.001418889865497075</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.001171583084723136</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.525067994904971e-05</v>
+      </c>
+      <c r="N87" t="n">
+        <v>6.101042577373903e-05</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3.379614410444079e-05</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0004804024087560672</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1452.719301396856</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.2734</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.001355297697369</v>
+      </c>
+      <c r="B88" t="n">
+        <v>29.62518098501462</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2.742517256688624e-05</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.02812152642946875</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.150251401408964e-06</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.002987091463815789</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.621611413125002e-06</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0003053689235794408</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.08868334622624269</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.655066810581139e-05</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.001470889154422515</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.001257288637216191</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2.973300566337719e-05</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.312114380918312e-05</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-1.174992625091375e-05</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0005013265864493422</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1449.561635775884</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.2912</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.001303348684211</v>
+      </c>
+      <c r="B89" t="n">
+        <v>29.51088684210526</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-2.046941909722165e-05</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.02845265606428362</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.193630814006579e-06</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.003099418871710527</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.97329410473684e-06</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.000318265031155519</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.09168933826754386</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5.271956818530705e-05</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001519527524671053</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.001138740599875731</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4.227104208598319e-05</v>
+      </c>
+      <c r="N89" t="n">
+        <v>6.898808143351608e-05</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-3.466458195553362e-05</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.0005068389219340277</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1446.360834498395</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.3087</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.001245782894737</v>
+      </c>
+      <c r="B90" t="n">
+        <v>29.39214608918129</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5.559881122076384e-06</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.02939564425164291</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.309912776369079e-06</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.003224472483552632</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.881032749848684e-06</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.000339266476094481</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.09506385617690057</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.486404473501452e-05</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.001560753323647661</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.001119373592354897</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5.247844922980628e-05</v>
+      </c>
+      <c r="N90" t="n">
+        <v>7.573411582872807e-05</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-5.505181460316155e-05</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.0005139340375330775</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1443.048948171744</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.3261</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.001190226973684</v>
+      </c>
+      <c r="B91" t="n">
+        <v>29.26876794590643</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.959076933479596e-05</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.03075161826075256</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.443921539457237e-06</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.003377548493421053</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.525367154605263e-06</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.000353527883896016</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.09921069517543861</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4.991702127558479e-05</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.001600797181103801</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.001075738089847387</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5.938446362554641e-05</v>
+      </c>
+      <c r="N91" t="n">
+        <v>8.552543459459063e-05</v>
+      </c>
+      <c r="O91" t="n">
+        <v>-6.107570132236842e-05</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.0005085653785217654</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1439.616707239996</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.3436</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.001128766447369</v>
+      </c>
+      <c r="B92" t="n">
+        <v>29.14081137609649</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.149140449378683e-05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.03235847626996857</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.495146219910691e-06</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.003563876501644736</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-4.088623037006607e-07</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0003782666177390716</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.1042731904239766</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5.206698483186114e-07</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.001641281710800439</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.00118419388967133</v>
+      </c>
+      <c r="M92" t="n">
+        <v>6.17093477893823e-05</v>
+      </c>
+      <c r="N92" t="n">
+        <v>9.685947953414841e-05</v>
+      </c>
+      <c r="O92" t="n">
+        <v>-5.1625365346144e-05</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.0005136376966949928</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1436.073265069675</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.361</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.001065835526316</v>
+      </c>
+      <c r="B93" t="n">
+        <v>29.01226602704678</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.976942799706693e-07</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.0341173656513505</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.600332649463815e-06</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.003734233967105263</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1.523701469266453e-06</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0004005765932355811</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.1087862987938596</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-2.160529574013156e-05</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.00168209068622076</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.001029636927876279</v>
+      </c>
+      <c r="M93" t="n">
+        <v>6.101489985478801e-05</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.0001071920731188578</v>
+      </c>
+      <c r="O93" t="n">
+        <v>-7.259876251991957e-05</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.000506729170797149</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1432.528296047562</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.378</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.001005203947368</v>
+      </c>
+      <c r="B94" t="n">
+        <v>28.87992028508771</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-6.544064720395038e-06</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.03596625368441338</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.824604374199013e-06</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.003890373296052632</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1.953958500065795e-06</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0004376708846818347</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.1128666725146199</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-2.055676415935674e-05</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.001715272800621345</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.001018252023278637</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5.996832226396198e-05</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0001139178184546783</v>
+      </c>
+      <c r="O94" t="n">
+        <v>-5.504541632748537e-05</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.0005102780873686769</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1428.891436528183</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.395</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.000933427631579</v>
+      </c>
+      <c r="B95" t="n">
+        <v>28.74358908991228</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-2.265411419042413e-05</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.03799342193521564</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.034000470455263e-06</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.004045683121710527</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1.770784869868421e-06</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0004634848751238669</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.1168879685672514</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-4.99497441519031e-08</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.001746895199013158</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.0009782241402125364</v>
+      </c>
+      <c r="M95" t="n">
+        <v>6.026897213048246e-05</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0001152505372960526</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.032521395880847e-05</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.0005016443521401681</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1425.172432319381</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.412</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.000864777960526</v>
+      </c>
+      <c r="B96" t="n">
+        <v>28.6030444627193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-4.292355662920316e-05</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.04056971315594664</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.173566617182566e-06</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.004213853241776317</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1.4852498953454e-06</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0004896829173334658</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.1212598932748538</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.96636106003289e-05</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.001773484832876462</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.001107325954645614</v>
+      </c>
+      <c r="M96" t="n">
+        <v>6.373754829957053e-05</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0001100898702599507</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.0001142802992287738</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.0005061228397566611</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1421.353149691527</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.000792921052631</v>
+      </c>
+      <c r="B97" t="n">
+        <v>28.46279884868421</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-4.936586339363976e-05</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.04395146025312865</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.34545301219079e-06</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.004410752805921053</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-4.121895016447381e-07</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0005027553732956871</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.1263503240131579</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5.568006635051179e-05</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.001799055224780702</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0009357047179284541</v>
+      </c>
+      <c r="M97" t="n">
+        <v>6.871099951608188e-05</v>
+      </c>
+      <c r="N97" t="n">
+        <v>9.645519593410088e-05</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.0001864247133720943</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.0004981208115658626</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1417.563765025256</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.4454</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.000719575657895</v>
+      </c>
+      <c r="B98" t="n">
+        <v>28.31802847222222</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-4.213419440789577e-05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.04813458255540935</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.536286047233553e-06</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.004605551486842105</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-8.420903883552587e-07</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0005305589799161184</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.1312624546783626</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4.431719640350903e-05</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.001827021922331872</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0009295614543392909</v>
+      </c>
+      <c r="M98" t="n">
+        <v>6.979226390255848e-05</v>
+      </c>
+      <c r="N98" t="n">
+        <v>7.706793924256213e-05</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.0002120593356103252</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.0005148349820855263</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1413.669803051643</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.4619</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.000642996710526</v>
+      </c>
+      <c r="B99" t="n">
+        <v>28.16841787280701</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-3.587712959978115e-05</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.05308468270806652</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.76698897085625e-06</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.004796948424342105</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2.193070226118424e-06</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.000549163332044682</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.1359449120979532</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.753407578764761e-06</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.001866439436403509</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.0008872625475014619</v>
+      </c>
+      <c r="M99" t="n">
+        <v>6.414367467801536e-05</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.703241884354898e-05</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.0001969224777095394</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.00052467012086875</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1409.66705143174</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.4783</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.000559828947369</v>
+      </c>
+      <c r="B100" t="n">
+        <v>28.01419433479532</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-3.929837068411919e-05</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.0585737860038231</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.942647702389638e-06</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.004981490289473684</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-3.013053941875e-06</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0005791612639042581</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.1403969275402047</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-2.412171653143283e-05</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.001910541385690789</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.001047757211213569</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5.351794264044591e-05</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3.58305239950201e-05</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.0001871743462970395</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.0005500423806320632</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1405.564648052366</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.4948</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.000480766447368</v>
+      </c>
+      <c r="B101" t="n">
+        <v>27.86184131944444</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-5.852028324195898e-05</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.06388841401153818</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.119178301042764e-06</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.005159930572368422</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-2.216435340460528e-06</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0006036245285533626</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.144546300621345</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-5.032837132675401e-06</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.001958968781798246</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.0008203836828016264</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4.405315910032895e-05</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.198385162031799e-05</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.000226419471571345</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.0005572995292189327</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1401.527304145696</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1.5106</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.000396641447368</v>
+      </c>
+      <c r="B102" t="n">
+        <v>27.70601694078947</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-7.320948848684194e-05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.06866358089766082</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4.337452354044737e-06</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.00530382417763158</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-2.226002978970715e-06</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.0006540216918159905</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.147634764254386</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-4.57492392543831e-06</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.002002046028143275</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.0008047005553711622</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3.416254568128656e-05</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-8.280649045175439e-06</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.0002770974581133224</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.0005820125505972221</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1397.419144157638</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1.5265</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.000312729276316</v>
+      </c>
+      <c r="B103" t="n">
+        <v>27.54663225511695</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-6.245563302266019e-05</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.07251453115361842</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.540685902858553e-06</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.005432709121710527</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-2.583683993749991e-06</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0006900672244768639</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.1502175588450292</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-5.134080249817231e-06</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.002042245234868421</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.0007421244402978619</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.674166439793494e-05</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-2.460108180930191e-05</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.0003556590204023939</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.0005835147460611111</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1393.236202119787</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.5423</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.000224762335526</v>
+      </c>
+      <c r="B104" t="n">
+        <v>27.38359868421053</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-2.337903416483887e-05</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.0753902471317946</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4.710004887116283e-06</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.005564994843750001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2.052538314391446e-06</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0007396533914322186</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.1529324596125731</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.576939051169586e-05</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.00206624256679459</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.000945222991135097</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.953353864723136e-05</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-3.151460642078765e-05</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.0004400317216923703</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.0005992283722658444</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1388.980907649341</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.5581</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.000138324671053</v>
+      </c>
+      <c r="B105" t="n">
+        <v>27.22381204312866</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5.446586463816026e-06</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.07741345319797149</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5.103290325480592e-06</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.005705211726973684</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-6.942062552631481e-07</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0007828201681652046</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.1556338695175438</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5.804083422514586e-05</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.002081047708516082</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0006814267844010417</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.136333666723318e-05</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-3.336742972323465e-05</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.0005741102092889802</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.0005936033251217105</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1384.831708507976</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1.5733</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.000051869736842</v>
+      </c>
+      <c r="B106" t="n">
+        <v>27.06036021564327</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.872662076023273e-05</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.07874832521044042</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5.37284889305296e-06</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.00583914303618421</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.199422563486916e-07</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0008417220702380281</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.1581419998172514</v>
+      </c>
+      <c r="J106" t="n">
+        <v>8.310874107638903e-05</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.002087409230263158</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.0006643640092662646</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-4.713323628289475e-06</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-3.465973081260965e-05</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.0006647699239692435</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.0006050774585197368</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1380.609554315079</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.5885</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9999627124999999</v>
+      </c>
+      <c r="B107" t="n">
+        <v>26.89246445540936</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.910840668859669e-05</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.07932551651198831</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5.562018719608224e-06</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.005990553273026316</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.551259348684115e-07</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0008739119756675805</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.1610621149488304</v>
+      </c>
+      <c r="J107" t="n">
+        <v>9.640182341228103e-05</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.002095503046966374</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.0006004680007065058</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-2.778148378157894e-05</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-3.654209857563962e-05</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.0007091199284685671</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.0005900545355219298</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1376.299575657494</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.6037</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9998695743421052</v>
+      </c>
+      <c r="B108" t="n">
+        <v>26.71942251461988</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0001384445766611838</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.07914604332469025</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5.680392976526317e-06</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.006175640769736842</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.137451443113487e-06</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0009154588778839182</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.1649513462171052</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.0001361290151078217</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.00209885977613304</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0008538860120004338</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-4.901920729402412e-05</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-3.716319292970029e-05</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.000759649151001791</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.0005900586379017362</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1371.886343967134</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1.6189</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9997789838815788</v>
+      </c>
+      <c r="B109" t="n">
+        <v>26.54935968567251</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0002105290918676894</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.07819233253949195</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5.810714364131579e-06</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.006365138023026316</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.974181477467111e-06</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0009364421050292396</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.1686971200657895</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0001809015935471494</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.002104994018640351</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.0005798778768808297</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-6.533656543384504e-05</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-3.285653110683479e-05</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.0008354230347741227</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.0005752872250335344</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1367.574786034549</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.6334</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9996865476973683</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26.37472585891813</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.000266828056670323</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.07641584557085269</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5.909998391842106e-06</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.006521390407894736</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.415514032203946e-06</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0009804479276162828</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.1714515442251462</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0001868039801114767</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.002103256226973684</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0005823325174901316</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-7.709903007238668e-05</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-3.229331216573464e-05</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.0008227443556162282</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.0005893715308472405</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1363.174783365383</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.6479</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9995914644736841</v>
+      </c>
+      <c r="B111" t="n">
+        <v>26.19524786184211</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0002861598770047524</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.07378147666012994</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.076128483884869e-06</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.006679790684210526</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.19947731832237e-06</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.001003369666395194</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.1740862295321637</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0001390341124890352</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.002103728015003655</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.0005250042996750731</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-8.102390161107273e-05</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-3.061510422746364e-05</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.0007399195890211988</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.0005773015029963267</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1358.683999708801</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.6624</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9994925623355264</v>
+      </c>
+      <c r="B112" t="n">
+        <v>26.01070557383041</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0002549442026562496</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.07051257105730994</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.207073245612336e-06</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.006872612888157895</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4.575512267055919e-06</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.001050761519638706</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.1776589971673977</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6.754973406706861e-05</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.002088130524022295</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0008546390947810762</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-7.763634193667764e-05</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-3.170080725980446e-05</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.0006757353380196454</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.0005790817584879385</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1354.099637776365</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.6769</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9993971384868421</v>
+      </c>
+      <c r="B113" t="n">
+        <v>25.83101884137427</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0001840197389619876</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.06717463832662646</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.479394080770394e-06</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.007069885934210525</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-5.845408635888163e-06</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.001080979039214547</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.1809918801169591</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4.407827745248537e-05</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.00206593282443348</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.0005070260303760965</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-7.533418967388522e-05</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-4.004757973276499e-05</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.0005888954721045322</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.0005353002316500367</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1349.666822999185</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.6906</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9992984088815789</v>
+      </c>
+      <c r="B114" t="n">
+        <v>25.64744965277778</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0001086035666154971</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.06374623472476243</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.63026829069079e-06</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.007284952246710527</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-4.888149491480266e-06</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.001151126288985015</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.1847977341008772</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6.364083524305554e-05</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.002021597427923977</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.0005291177415435673</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-7.314501934923244e-05</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-5.456334921436403e-05</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.0005648733388440242</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.0005048644177237757</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1345.172599945373</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.7044</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9991963822368422</v>
+      </c>
+      <c r="B115" t="n">
+        <v>25.45911937134503</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.67081171527783e-05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.05988924587876462</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.725996960684868e-06</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.007534079121710526</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-4.130145401973672e-06</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0011936697920305</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.1892364237938597</v>
+      </c>
+      <c r="J115" t="n">
+        <v>8.088890549561378e-05</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.001982240819861111</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.0004810097675090643</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-7.595404257660819e-05</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-6.578082571418128e-05</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.0005597037678265718</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.0004240400838139619</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1340.597492758302</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.7182</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9990903269736842</v>
+      </c>
+      <c r="B116" t="n">
+        <v>25.26461800986842</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.351930843384548e-05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.05507577738374086</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.649017888317434e-06</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.007823875684210526</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3.48639349588816e-06</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.001269969290705428</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.1948524984466375</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.0001082574833890715</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.001928477315462902</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.0009340717654479989</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-7.73281944856268e-05</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-7.540644138340643e-05</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.0005505287844969846</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.0003456478314983462</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1335.909120024998</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.7319</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.998986765131579</v>
+      </c>
+      <c r="B117" t="n">
+        <v>25.07373865131579</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.186168530701197e-06</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.04935158798283626</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.580623174476973e-06</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.008129678378289472</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3.2563482483553e-07</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.001316410715692964</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.2002926301169591</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0002110304226809209</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.001878014264329313</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.0005434323471297605</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-8.519140196726974e-05</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-8.559770221619151e-05</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.0004501268062719663</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.0002104323464508754</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1331.340363594795</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.745</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9988788697368421</v>
+      </c>
+      <c r="B118" t="n">
+        <v>24.87493156067252</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.547474305555249e-06</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.04265732238772844</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.605402931736842e-06</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.008448962654605263</v>
+      </c>
+      <c r="G118" t="n">
+        <v>8.763911257532894e-06</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.001421727333353801</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.2060757662646198</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.0004228976783863303</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.001803836820741959</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.0005931053568853069</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-9.07665624669225e-05</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-9.844460022733918e-05</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.0003804814115393092</v>
+      </c>
+      <c r="P118" t="n">
+        <v>9.732062722675438e-05</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1326.618852608377</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.758</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9987664240131578</v>
+      </c>
+      <c r="B119" t="n">
+        <v>24.66655349049707</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.180078724414731e-06</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.0350481759034174</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.479157108720394e-06</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.008819592667763158</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.016024765802632e-05</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.001487182714646564</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.212759536366959</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.000679510352733918</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.00173579813505117</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.0005273551007211256</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.0001031743752044956</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.0001142636361632675</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.0003145250955894737</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-8.582097185599413e-05</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1321.711449750142</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.771</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9986483381578948</v>
+      </c>
+      <c r="B120" t="n">
+        <v>24.44675977704678</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.088355793768293e-05</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.02626959814125548</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.064994591411184e-06</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.009270036555921053</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2.901649024366776e-05</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.001613403429383132</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.2217385164473684</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.00084721896158178</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.001644481543994883</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.001122761990709951</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-0.0001127406636777229</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.0001310909441806177</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.0002569057028002557</v>
+      </c>
+      <c r="P120" t="n">
+        <v>-0.0002640371517462537</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1316.57998165062</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9985318171052632</v>
+      </c>
+      <c r="B121" t="n">
+        <v>24.22719287280702</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.899134115679868e-05</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.01663679669363487</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5.885244167396054e-06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.009775467726973686</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3.027674235263159e-05</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.001715727233719426</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.2309164930555556</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.0008247299735562862</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.001559797626726242</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.000570453875442617</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.000105034440180921</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.000148079163965826</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.0001136823572370248</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-0.0005081597233605793</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1311.495672212612</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.7963</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9984085072368422</v>
+      </c>
+      <c r="B122" t="n">
+        <v>23.99332317251462</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.030271562500038e-05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.005632496447092469</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.722551720740131e-06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.01033909822368421</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2.673603415822368e-05</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.001906131802405336</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.2415407437865497</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.0006852846482456142</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.001441000422493786</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.0006425476255701023</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-7.618960309082602e-05</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-0.0001701138275980994</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-1.371456119577854e-05</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-0.0007514274720553727</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1306.131193204431</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1.8086</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.99827745</v>
+      </c>
+      <c r="B123" t="n">
+        <v>23.74135111476608</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.935944990862485e-05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.006413778745358189</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.418743261019738e-06</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.01103471921710526</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.131313332713816e-05</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.002026247794277595</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.254497278874269</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.0005094360441557017</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.001342000911667087</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.0005608442328902959</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-2.993777828929093e-05</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.0001938210451535088</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-0.0001606689699846491</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-0.001103616507295121</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1300.411479340028</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.8209</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9981363277960527</v>
+      </c>
+      <c r="B124" t="n">
+        <v>23.46594916849415</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.385834960709105e-05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.01887510517165204</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.826048826957238e-06</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.01191558390789474</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.620675226569079e-05</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.002203650267631579</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.272259082876462</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.000362547713775859</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.001224663556119591</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.001387448719236998</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2.363182255911915e-05</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.0002110764903857547</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-0.0003735085799820084</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-0.001459339817489474</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1294.227881681663</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.8331</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9979936322368421</v>
+      </c>
+      <c r="B125" t="n">
+        <v>23.18061264619883</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.453818073830465e-05</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.03048272188934576</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.447880744023026e-06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.01292743989802632</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.072233681407896e-05</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.002322121153474598</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.2905569391447368</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.0002106025586129387</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.001143225702493878</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.0007179238486766448</v>
+      </c>
+      <c r="M125" t="n">
+        <v>6.374003869353069e-05</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.0002121114885013706</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-0.0005870617056047148</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-0.001936062517250182</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1287.88853175684</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.8447</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9978383953947367</v>
+      </c>
+      <c r="B126" t="n">
+        <v>22.86380027412281</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-2.549580063961979e-05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0418053822116228</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.166738490861842e-06</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.01403953791776316</v>
+      </c>
+      <c r="G126" t="n">
+        <v>7.58803309342105e-06</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.002567447259737573</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.3110378475877193</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.0001303164503929091</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.001044031499403509</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.0009220005574042543</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.0001079109033490314</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.0002018550713336257</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-0.0007952059916260966</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-0.002444393119142471</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1280.932040871935</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.8562</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9976690549342105</v>
+      </c>
+      <c r="B127" t="n">
+        <v>22.507263249269</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-7.830618201754395e-05</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.05262488706215242</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.528239862338816e-06</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.01540582174342105</v>
+      </c>
+      <c r="G127" t="n">
+        <v>8.046001624868418e-06</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.002691601052737849</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.3355856441885965</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0001345581139437135</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.00100619840699068</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.0009062658477733736</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.000154460679487171</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-0.0001863064716976973</v>
+      </c>
+      <c r="O127" t="n">
+        <v>-0.001004188014349781</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-0.003167253925810106</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1273.209972048029</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.8677</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9974812878289474</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22.09901179641813</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-7.032099793494134e-05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.06251247390316153</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.689002389376644e-06</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.01717512496710526</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.158582058506578e-05</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.00288518004030498</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.3700338286732456</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.00020003845312034</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.0009615675830139072</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.002277782230594234</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.0002021228963815789</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.0001726787750099104</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-0.001199161119292032</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-0.003974525335744427</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1264.509782362629</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1.8792</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9972854190789474</v>
+      </c>
+      <c r="B129" t="n">
+        <v>21.65617498172514</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.02648272478061e-05</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.07061479094862939</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.266607540358553e-06</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.01930324223684211</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.784626338157894e-05</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.002999367254601607</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.4071748764619884</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0003096153279989033</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.0009534328665650585</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.001330701029259649</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.0002475899764122807</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-0.0001630848760653326</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-0.001551352731051352</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-0.004973409027671052</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1255.2301958922</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9970633082236842</v>
+      </c>
+      <c r="B130" t="n">
+        <v>21.13541239035088</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0002190403293713454</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.07773217886319445</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.273513671601974e-06</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.02202193171052632</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.101404249838815e-05</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.00322874687926864</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.456223064875731</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.0003585490060557382</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.0009088818880732822</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.001635989915930373</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.0003026011126465461</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-0.0001550836926304824</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-0.002001022844352814</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-0.006040804379462719</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1244.532076047317</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.9008</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9968069944078947</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.50776047149123</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.000481530524250731</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.08396786197320905</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.87877816481579e-06</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.02570292736842105</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.68626649575658e-05</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.003221157674073251</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.5203432233187135</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.0002544144896728804</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.0009282276772668677</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.00143623548465296</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.0003567205062384869</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-0.000144220089094883</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-0.002483538206538195</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-0.007390589557562136</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1231.940780679208</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1.9116</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9965039287828947</v>
+      </c>
+      <c r="B132" t="n">
+        <v>19.72964370431287</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.0008140197390396562</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.088862650168305</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.857400124998356e-06</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.030865315625</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.354234881233558e-06</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.003243581420990314</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.6129716694078947</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5.493116458854155e-05</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.0009118187388168585</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.003050388091361568</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.0004183236498444262</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-0.0001291269872000914</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-0.00302447082016959</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-0.008795342205531796</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>1216.783430642221</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1.9224</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9961647532894736</v>
+      </c>
+      <c r="B133" t="n">
+        <v>18.8140841008772</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.001063644706907895</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.09107215502192617</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.766191719618421e-06</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.0369448921381579</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-7.501147359539475e-06</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.003191447246422149</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.7070473726242691</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.0001025913802500549</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.0008917950396763524</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.0008370588534511806</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.0004401349348620249</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-0.0001040975921865497</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-0.003738525994555921</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-0.01036828188036915</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1199.510589708383</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1.9324</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9957550546052633</v>
+      </c>
+      <c r="B134" t="n">
+        <v>17.63781266447368</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.001442955740113304</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.08959144310778508</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.522440124276316e-06</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.04481905940789473</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1.327808687636776e-05</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.003201850327801279</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.8225764126461989</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-9.304121430007307e-05</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.0007771264441160453</v>
+      </c>
+      <c r="L134" t="n">
+        <v>-0.0003040266970531798</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.000405869911993421</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-7.524445055701754e-05</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-0.004462950417596217</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-0.01160776912721857</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1178.251355069602</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1.9425</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9952584138157896</v>
+      </c>
+      <c r="B135" t="n">
+        <v>16.08454471856725</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.001747976792592855</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.0832963206670139</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.470986722368421e-06</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.05414274493421053</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1.171581961398027e-05</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.002859856607036275</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.9301043384502924</v>
+      </c>
+      <c r="J135" t="n">
+        <v>7.512935769919578e-05</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0006659376273137793</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-0.002549616680197387</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.0003083799552308114</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-4.625784299826389e-05</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-0.005024265585628654</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-0.01236752757417032</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1151.81111551505</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.9525</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9946607570723683</v>
+      </c>
+      <c r="B136" t="n">
+        <v>13.99406228070176</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.001761357207153691</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.07186871204352888</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.209550555599177e-06</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.06240885233552632</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3.886530506907899e-06</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.002595364919396692</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.9704822825292397</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0003098734410060307</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0005514285877632949</v>
+      </c>
+      <c r="L136" t="n">
+        <v>-0.003543134055440826</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.000190003192695011</v>
+      </c>
+      <c r="N136" t="n">
+        <v>-2.064545657062738e-05</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-0.0049399902449036</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-0.01188601055416667</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1119.231605657433</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.9626</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9940484940789474</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11.40929961622807</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.002035989854125</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.05721547359153508</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.729600259457237e-06</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.06770293779605263</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2.152773743503295e-06</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.001910931350222405</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.8961424733187133</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0003801002369846491</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0002873271395225146</v>
+      </c>
+      <c r="L137" t="n">
+        <v>-0.006044860068485014</v>
+      </c>
+      <c r="M137" t="n">
+        <v>8.184955279605262e-05</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-1.127809192653511e-06</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-0.004032801877525585</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-0.009353137456469299</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>1084.212530946531</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.972</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9934420651315788</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8.107892068713451</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.001147426258212719</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.03960139765501224</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8.335894700328945e-07</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.05942870562499999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4.185824276368428e-06</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.001291971278774123</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.587378026498538</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0003460447354788011</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0002030030821862208</v>
+      </c>
+      <c r="L138" t="n">
+        <v>-0.00451834249653655</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3.83222307790753e-05</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3.364044428249268e-06</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-0.002269891956038012</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-0.005273452461275585</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1048.457492484634</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.9813</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9929853529605264</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.19839509502924</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0006388564931597222</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.02010593046828692</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-8.16671493848685e-08</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.03571068424342105</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-9.163915075756579e-06</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.0003668660890984831</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.1913684239766082</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0001564888054581506</v>
+      </c>
+      <c r="K139" t="n">
+        <v>7.966753167635234e-05</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.001122324842688414</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.384590683203765e-05</v>
+      </c>
+      <c r="N139" t="n">
+        <v>5.012804106250004e-07</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-0.0004892279831747076</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-0.001457150290881945</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1020.601672198138</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.9907</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9928216236842106</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.0002110840567547515</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.0005051494182337353</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.130784588633044e-07</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-9.965861362236843e-07</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.003215855103078947</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-8.723279956907895e-06</v>
+      </c>
+      <c r="H140" t="n">
+        <v>7.957174632113487e-05</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.00244863726997606</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.631219725513523e-05</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1.024258863607018e-05</v>
+      </c>
+      <c r="L140" t="n">
+        <v>-0.0003347626613064693</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-8.63082982808845e-07</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-1.256107881971857e-06</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-0.0001456808345309338</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-0.0004434890080280153</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1010.257598028065</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
